--- a/ePICreator/Biktarvy.xlsx
+++ b/ePICreator/Biktarvy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB53109-EFB4-B24A-877D-D1E0589689F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0179488-6A37-0346-A165-7878241B80DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="6" activeTab="9" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -337,12 +337,6 @@
   </si>
   <si>
     <t>100000072062</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>European Union</t>
   </si>
   <si>
     <t>100000072084</t>
@@ -815,6 +809,12 @@
 &lt;p&gt;Biktarvy comes in bottles of 30 tablets and in packs made up of 3 bottles, each containing 30 tablets.
 Each bottle contains a silica gel desiccant that must be kept in the bottle to help protect your tablets.
 The silica gel desiccant is contained in a separate sachet or canister and should not be swallowed.&lt;/p&gt;    </t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1336,10 +1336,10 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>25</v>
@@ -1357,28 +1357,28 @@
         <v>28</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" s="8">
         <v>220000000032</v>
@@ -1390,16 +1390,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05DE958-7C5A-B14B-9983-3CEB258B5640}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1478,11 +1478,9 @@
     <row r="2" spans="1:16" ht="409.6">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1490,34 +1488,34 @@
         <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1577,10 +1575,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1593,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1644,10 +1642,10 @@
     <row r="2" spans="1:11">
       <c r="A2" s="11"/>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
@@ -1656,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>37</v>
@@ -1665,10 +1663,10 @@
         <v>96</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1851,10 +1849,10 @@
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1881,10 +1879,10 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1911,10 +1909,10 @@
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1941,10 +1939,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1959,10 +1957,10 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1977,10 +1975,10 @@
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2024,7 +2022,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2107,34 +2105,34 @@
     <row r="2" spans="1:19" ht="19">
       <c r="A2" s="11"/>
       <c r="B2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>83</v>
@@ -2146,7 +2144,7 @@
         <v>55</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2274,22 +2272,22 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="8">
         <v>100000073665</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="13">
         <v>200000002152</v>
@@ -2361,16 +2359,16 @@
     <row r="2" spans="1:11" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F2" s="8">
         <v>10219000</v>
@@ -2378,7 +2376,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="18"/>
       <c r="I2" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" s="8">
         <v>20053000</v>
@@ -2491,16 +2489,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
@@ -2509,13 +2507,13 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" s="8">
         <v>654321</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K2" s="13">
         <v>100000073504</v>
@@ -2524,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N2" s="13">
         <v>200000003529</v>

--- a/ePICreator/Biktarvy.xlsx
+++ b/ePICreator/Biktarvy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0179488-6A37-0346-A165-7878241B80DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929F7CD-2B9E-A648-9379-91E44DACBAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C620B326-AC2F-7D41-952C-D15C634902DC}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2021,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2072,7 +2075,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="K1" t="s">
         <v>82</v>

--- a/ePICreator/Biktarvy.xlsx
+++ b/ePICreator/Biktarvy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929F7CD-2B9E-A648-9379-91E44DACBAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FAF3BF-8BC5-9642-B367-73B4378E372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
   <si>
     <t>id</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>90 tablets</t>
-  </si>
-  <si>
-    <t>biktarvy</t>
   </si>
   <si>
     <t>&lt;p&gt;Biktarvy contains three active substances:&lt;/p&gt;
@@ -818,6 +815,370 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Biktarvy 50 mg/200 mg/25 mg comprimidos revestidos por película</t>
+  </si>
+  <si>
+    <t>biktarvy-pt</t>
+  </si>
+  <si>
+    <t>biktarvy-en</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Leia com atenção todo este folheto antes de começar a tomar este medicamento, pois contém informação importante para si.&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Conserve este folheto. Pode ter necessidade de o ler novamente.&lt;/li&gt;
+&lt;li&gt;Caso ainda tenha dúvidas, fale com o seu médico ou farmacêutico.&lt;/li&gt;
+&lt;li&gt;Este medicamento foi receitado apenas para si. Não deve dá-lo a outros. O medicamento pode ser-lhes prejudicial mesmo que apresentem os mesmos sinais de doença.&lt;/li&gt;
+&lt;li&gt;Se tiver quaisquer efeitos indesejáveis, incluindo possíveis efeitos indesejáveis não indicados
+neste folheto, fale com o seu médico ou farmacêutico. Ver secção 4.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Se Biktarvy foi prescrito para a criança a seu cargo, tenha em atenção que todas as informações neste folheto são dirigidas à criança a seu cargo (neste caso, leia “a criança a seu cargo” em vez de “você”).&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;O que contém este folheto:&lt;/p&gt;
+&lt;ol&gt;
+&lt;li&gt;O que é Biktarvy e para que é utilizado&lt;/li&gt;
+&lt;li&gt;O que precisa de saber antes de tomar Biktarvy&lt;/li&gt;
+&lt;li&gt;Como tomar Biktarvy&lt;/li&gt;
+&lt;li&gt;Efeitos indesejáveis possíveis&lt;/li&gt;
+&lt;li&gt;Como conservar Biktarvy&lt;/li&gt;
+&lt;li&gt;Conteúdo da embalagem e outras informações&lt;/li&gt;
+&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Biktarvy contém três substâncias ativas:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;bictegravir&lt;/strong&gt;, um tipo de medicamento antirretrovírico conhecido como inibidor da transferência
+de cadeia da integrase (ITI)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;emtricitabina&lt;/strong&gt;, um tipo de medicamento antirretrovírico conhecido como inibidor nucleósido da
+transcriptase reversa (INTR)&lt;/li&gt;
+&lt;li&gt;&lt;strong&gt;tenofovir alafenamida&lt;/strong&gt;, um tipo de medicamento antirretrovírico conhecido como inibidor
+nucleotídeo da transcriptase reversa (INtTR)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Biktarvy é um comprimido único para o tratamento da infeção pelo vírus da imunodeficiência
+humana 1 (VIH-1) em adultos, adolescentes e crianças com idade igual ou superior a 2 anos, que
+pesem pelo menos 14 kg.&lt;/p&gt;
+&lt;p&gt;Biktarvy diminui a quantidade de VIH no seu corpo. Isto irá melhorar o seu sistema imunológico e
+diminuir o risco de desenvolvimento de doenças ligadas à infeção pelo VIH.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Não tome Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Se tem alergia ao bictegravir, emtricitabina, tenofovir alafenamida ou a qualquer outro
+componente deste medicamento (indicados na secção 6).&lt;/li&gt;
+&lt;li&gt;Se estiver atualmente a tomar algum dos seguintes medicamentos:&lt;ul&gt;
+&lt;li&gt;rifampicina utilizada para tratar algumas infeções causadas por bactérias, como a tuberculose&lt;/li&gt;
+&lt;li&gt;hipericão (Hypericum perforatum), um produto à base de plantas para tratar a depressão e ansiedade ou produtos que o contenham.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Se qualquer uma destas situações se aplicar a si, &lt;strong&gt;não tome Biktarvy e informe imediatamente o seu médico.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Advertências e precauções&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fale com o seu médico antes de tomar Biktarvy:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Se tem problemas do fígado ou antecedentes de doença do fígado, incluindo hepatite. Os
+doentes com doença do fígado, incluindo hepatite B ou C crónica, que estejam a ser tratados
+com antirretrovíricos, apresentam um risco superior de complicações ao nível do fígado graves e
+potencialmente fatais. Se tem infeção pelo vírus da hepatite B, o seu médico irá considerar
+cuidadosamente o melhor regime de tratamento para si.&lt;/li&gt;
+&lt;li&gt;Se tem infeção pelo vírus da hepatite B. Os problemas do fígado podem piorar depois de parar
+de tomar Biktarvy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;Não pare de tomar Biktarvy se tiver hepatite B. Fale primeiro com o seu médico. Para obter mais informação, consulte a secção 3, Não pare de tomar Biktarvy.&lt;/em&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Se teve doença renal ou se as análises revelaram problemas nos seus rins. O seu médico
+pode pedir-lhe para efetuar análises ao sangue para monitorizar o funcionamento dos seus rins
+no início e durante o tratamento com Biktarvy.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Enquanto estiver a tomar Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Assim que começar a tomar Biktarvy, fique atento a:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;&lt;strong&gt;Sinais de inflamação ou infeção&lt;/strong&gt;&lt;/li&gt;
+&lt;li&gt;D&lt;strong&gt;ores nas articulações, rigidez ou problemas nos ossos&lt;/strong&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Se observar quaisquer destes sintomas, informe o seu médico imediatamente.&lt;/strong&gt; Para obter mais
+informação, consulte a secção 4, Efeitos indesejáveis possíveis.&lt;/p&gt;
+&lt;p&gt;Existe a possibilidade de vir a ter problemas nos rins se tomar Biktarvy durante um longo período de
+tempo (ver Advertências e precauções).&lt;/p&gt;
+&lt;p&gt;Este medicamento não é uma cura para a infeção pelo VIH. Enquanto tomar Biktarvy pode
+desenvolver na mesma infeções ou outras doenças associadas com a infeção pelo VIH.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Crianças e adolescentes&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Não dê este medicamento a crianças com menos de 2 anos de idade, ou que pesem menos de 14 kg
+independentemente da idade. A utilização de Biktarvy em crianças com menos de 2 anos de idade ou
+que pesem menos de 14 kg ainda não foi estudada. Para crianças e adolescentes que pesem 25 kg ou
+mais, estão disponíveis comprimidos revestidos por película de Biktarvy 50 mg/200 mg/25 mg.&lt;/p&gt;
+&lt;p&gt;Foi notificada perda de massa óssea em algumas crianças com idade entre 3 e menos de 12 anos que
+receberam um dos medicamentos (tenofovir alafenamida) contido em Biktarvy. Os efeitos na saúde
+óssea a longo prazo e o risco futuro de fratura em crianças é incerto. O seu médico monitorizará a
+saúde óssea do seu filho conforme necessário.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Outros medicamentos e Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Informe o seu médico ou farmacêutico se estiver a tomar, tiver tomado recentemente, ou se vier a tomar outros medicamentos.&lt;/strong&gt; Biktarvy pode interferir com outros medicamentos. Como resultado, 
+as quantidades de Biktarvy ou dos outros medicamentos no seu sangue podem alterar-se. Isto pode
+fazer com que os seus medicamentos parem de funcionar corretamente ou piorar quaisquer efeitos
+indesejáveis. Em alguns casos, o seu médico pode precisar de ajustar a sua dose ou verificar os níveis
+dos medicamentos no seu sangue.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Medicamentos que nunca podem ser tomados com Biktarvy:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;rifampicina utilizada para tratar algumas infeções causadas por bactérias, como a tuberculose&lt;/li&gt;
+&lt;li&gt;hipericão (Hypericum perforatum), um produto à base de plantas para tratar a depressão e ansiedade ou produtos que o contenham.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Se estiver a tomar qualquer um destes medicamentos, não tome Biktarvy e informe o seu médico imediatamente.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fale com o seu médico se estiver a tomar:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;medicamentos utilizados para tratar o VIH e/ou a hepatite B que contenham:&lt;ul&gt;
+&lt;li&gt;adefovir dipivoxil, atazanavir, bictegravir, emtricitabina, lamivudina, tenofovir alafenamida ou tenofovir disoproxil&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;antibióticos utilizados para tratar infeções causadas por bactérias contendo:&lt;ul&gt;
+&lt;li&gt;azitromicina, claritromicina, rifabutina ou rifapentina&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;anticonvulsivantes utilizados para tratar a epilepsia, contendo:&lt;ul&gt;
+&lt;li&gt;carbamazepina, oxcarbazepina, fenobarbital ou fenitoína&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;imunossupressores utilizados para controlar a resposta imunitária do seu corpo após um
+transplante, contendo ciclosporina&lt;/li&gt;
+&lt;li&gt;medicamentos para as úlceras do aparelho digestivo contendo sucralfato&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Informe o seu médico se estiver a tomar qualquer um destes medicamentos. Não pare o seu
+tratamento sem contactar o seu médico.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Consulte um médico ou farmacêutico se estiver a tomar:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;antiácidos para tratar úlceras do estômago, azia ou refluxo ácido, contendo alumínio e/ou
+hidróxido de magnésio&lt;/li&gt;
+&lt;li&gt;suplementos minerais ou vitaminas contendo magnésio ou ferro&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Consulte o seu médico ou farmacêutico antes de tomar Biktarvy&lt;/strong&gt; se estiver a tomar algum destes medicamentos.&lt;/p&gt;
+&lt;p&gt;Antiácidos e suplementos de magnésio: terá de tomar Biktarvy, pelo menos, 2 horas antes de
+tomar antiácidos ou suplementos contendo alumínio e/ou magnésio. Ou pode tomar Biktarvy com
+alimentos, pelo menos, 2 horas depois.&lt;/p&gt;
+&lt;p&gt;Suplementos de ferro: terá de tomar Biktarvy, pelo menos, 2 horas antes de tomar suplementos de
+ferro ou pode tomá-los juntamente com alimentos.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Gravidez e amamentação&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Se está grávida ou a amamentar, se pensa estar grávida ou planeia engravidar, consulte o seu
+médico ou farmacêutico antes de tomar este medicamento.&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Se engravidar, informe imediatamente o seu médico e pergunte quais são os potenciais
+benefícios e riscos da sua terapêutica antirretroviral para si e para o bebé.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Se tomou Biktarvy durante a gravidez, o seu médico pode pedir-lhe para efetuar análises ao sangue e
+outros testes de diagnóstico regulares para verificar o desenvolvimento da sua criança. Nas crianças
+cujas mães tomaram inibidores nucleósidos da transcriptase reversa (INTR) durante a gravidez, o
+benefício da menor possibilidade de infeção pelo VIH é superior ao risco de sofrerem efeitos
+indesejáveis.
+Não amamente durante o tratamento com Biktarvy. Isto deve-se ao facto de algumas das
+substâncias ativas deste medicamento serem excretadas no leite humano. A amamentação não é
+recomendada em mulheres que vivem com VIH, uma vez que a infeção pelo VIH pode ser transmitida
+ao bebé através do leite materno. Se estiver a amamentar ou planeia vir a amamentar, deve falar com
+o seu médico o mais rapidamente possível.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Condução de veículos e utilização de máquinas&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Biktarvy pode causar tonturas. Se sentir tonturas enquanto estiver a tomar Biktarvy, não conduza nem
+ande de bicicleta e não utilize quaisquer ferramentas ou máquinas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Biktarvy contém sódio&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Este medicamento contém menos do que 1 mmol (23 mg) de sódio por comprimido, ou seja, é
+praticamente “isento de sódio”.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Tome este medicamento exatamente como indicado pelo seu médico. Fale com o seu médico ou
+farmacêutico se tiver dúvidas.&lt;/p&gt;
+&lt;p&gt;Existem duas dosagens de comprimidos de Biktarvy. O seu médico irá prescrever o comprimido
+apropriado para a sua idade e peso.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;A dose recomendada é:&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Crianças com idade igual ou superior a 2 anos, que pesem pelo menos 14 kg, mas menos de
+25 kg: um comprimido por dia com ou sem alimentos (um comprimido de 30 mg/120 mg/15 mg).&lt;/p&gt;
+&lt;p&gt;Devido ao sabor amargo, recomenda-se que não mastigue ou esmague o comprimido.
+Se tiver dificuldade em engolir o comprimido inteiro pode dividi-lo ao meio. Tome ambas as metades
+do comprimido uma a seguir à outra para obter a dose total. Não guarde o comprimido dividido.&lt;/p&gt;
+&lt;p&gt;A ranhura no comprimido existe apenas para ajudá-lo a partir o comprimido se a criança a seu cargo
+tiver dificuldade em engoli-lo inteiro.
+A embalagem múltipla de 90 dias contém um conjunto de três embalagens de 30 dias.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Consulte um médico ou farmacêutico se estiver a tomar:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;antiácidos para tratar úlceras do estômago, azia ou refluxo ácido, contendo alumínio e/ou
+hidróxido de magnésio&lt;/li&gt;
+&lt;li&gt;suplementos minerais ou vitaminas contendo magnésio ou ferro&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Consulte a secção 2 para obter mais informação sobre como tomar estes medicamentos com
+Biktarvy.&lt;/p&gt;
+&lt;p&gt;Se estiver a fazer diálise, tome a sua dose diária de Biktarvy após terminar a diálise.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Se tomar mais Biktarvy do que deveria&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Se tomar mais do que a dose recomendada de Biktarvy pode ter um maior risco de efeitos indesejáveis
+com este medicamento (ver secção 4, Efeitos indesejáveis possíveis).&lt;/p&gt;
+&lt;p&gt;Entre imediatamente em contacto com o seu médico ou aconselhe-se junto do serviço de urgência
+mais próximo. Mantenha ou leve o frasco ou embalagem de comprimidos consigo para que facilmente
+possa descrever o que tomou.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Caso se tenha esquecido de tomar Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;É importante que não falhe nenhuma dose de Biktarvy.&lt;/p&gt;
+&lt;p&gt;Caso se tenha esquecido de tomar uma dose:&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Caso se aperceba no período de 18 horas após a hora em que habitualmente toma Biktarvy,
+deve necessariamente tomar o comprimido o mais rapidamente possível. Depois tome a sua
+dose seguinte como é habitual.&lt;/li&gt;
+&lt;li&gt;Caso se aperceba 18 horas ou mais após a hora em que habitualmente toma Biktarvy, não
+tome a dose que falhou. Espere e tome a dose seguinte à hora habitual.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Se vomitar em menos de 1 hora após a toma de Biktarvy, tome outro comprimido. Se vomitar mais de
+1 hora após a toma de Biktarvy, não necessita de tomar outro comprimido até ao seu próximo
+comprimido de acordo com o esquema habitual.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Não pare de tomar Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Não pare de tomar Biktarvy sem falar com o seu médico.&lt;/strong&gt; A interrupção do tratamento com
+Biktarvy pode afetar gravemente a sua resposta a um tratamento futuro. Se o tratamento com Biktarvy
+for interrompido por qualquer razão, fale com o seu médico antes de voltar a tomar os comprimidos de
+Biktarvy.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Quando a quantidade de Biktarvy começar a escassear,&lt;/strong&gt; obtenha mais junto do seu médico ou
+farmacêutico. É muito importante que o faça porque a quantidade de vírus pode começar a aumentar se
+o medicamento for interrompido, mesmo por um curto período de tempo. A doença pode então tornarse mais difícil de tratar.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Se tiver infeção por VIH e hepatite B,&lt;/strong&gt; é particularmente importante não parar o tratamento com
+Biktarvy sem previamente consultar o seu médico. Pode necessitar de análises ao sangue durante
+vários meses após interrupção do tratamento. Em alguns doentes com doença hepática (do fígado)
+avançada ou cirrose, a interrupção do tratamento não é recomendada, uma vez que pode levar a um
+agravamento da sua hepatite, que pode ser potencialmente fatal.&lt;/p&gt;
+&lt;p&gt;&lt;em&gt;Informe imediatamente o seu médico se surgirem quaisquer sintomas novos ou pouco habituais após parar o tratamento, particularmente sintomas que associaria à sua hepatite B.&lt;/em&gt;&lt;/p&gt;
+&lt;p&gt;Caso ainda tenha dúvidas sobre a utilização deste medicamento, fale com o seu médico ou
+farmacêutico.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Como todos os medicamentos, este medicamento pode causar efeitos indesejáveis, embora estes não se
+manifestem em todas as pessoas.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Efeitos indesejáveis possíveis: informe o seu médico imediatamente&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Quaisquer sinais de inflamação ou infeção. Em alguns doentes com infeção pelo VIH
+avançada (SIDA) e antecedentes de infeções oportunistas (infeções que ocorrem em pessoas
+com um sistema imunológico fraco), podem ocorrer sinais e sintomas de inflamação de infeções
+prévias logo após iniciar o tratamento contra o VIH. Pensa-se que estes sintomas são devidos a
+uma melhoria na resposta imunológica do corpo, permitindo que o corpo lute contra infeções
+que podem estar presentes sem sintomas óbvios.&lt;/li&gt;
+&lt;li&gt;Doenças autoimunes, quando o sistema imunitário ataca os tecidos saudáveis do corpo, após
+começar a tomar medicamentos para a sua infeção pelo VIH. As doenças autoimunes podem
+ocorrer muitos meses depois do início do tratamento. Esteja atento a quaisquer sintomas de
+infeção ou outros sintomas, como:&lt;ul&gt;
+&lt;li&gt;fraqueza muscular&lt;/li&gt;
+&lt;li&gt;fraqueza que começa nas mãos e nos pés e que progride para o tronco&lt;/li&gt;
+&lt;li&gt;palpitações, tremores ou hiperatividade&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Se observar estes ou quaisquer outros sintomas de inflamação ou infeção, informe o seu médico imediatamente.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Efeitos indesejáveis frequentes&lt;/strong&gt;
+(podem afetar até 1 em cada 10 pessoas)*&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;depressão&lt;/li&gt;
+&lt;li&gt;sonhos anormais&lt;/li&gt;
+&lt;li&gt;dores de cabeça&lt;/li&gt;
+&lt;li&gt;tonturas&lt;/li&gt;
+&lt;li&gt;diarreia&lt;/li&gt;
+&lt;li&gt;sentir-se enjoado (náuseas)&lt;/li&gt;
+&lt;li&gt;cansaço (fadiga)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Efeitos indesejáveis pouco frequentes&lt;/strong&gt;
+&lt;em&gt;(podem afetar até 1 em cada 100 pessoas)&lt;/em&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;anemia&lt;/li&gt;
+&lt;li&gt;vómitos&lt;/li&gt;
+&lt;li&gt;dor de estômago&lt;/li&gt;
+&lt;li&gt;problemas digestivos que podem resultar em desconforto após as refeições (dispepsia)&lt;/li&gt;
+&lt;li&gt;gases (flatulência)&lt;/li&gt;
+&lt;li&gt;inchaço da face, lábios, língua ou garganta (angioedema)&lt;/li&gt;
+&lt;li&gt;comichão (prurido)&lt;/li&gt;
+&lt;li&gt;erupção na pele&lt;/li&gt;
+&lt;li&gt;urticária&lt;/li&gt;
+&lt;li&gt;dor nas articulações (artralgia)&lt;/li&gt;
+&lt;li&gt;pensamentos suicidas e tentativa de suicídio (particularmente em doentes que tiveram depressão ou problemas de saúde mental anteriormente)&lt;/li&gt;
+&lt;li&gt;ansiedade&lt;/li&gt;
+&lt;li&gt;perturbações do sono&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;em&gt;As análises ao sangue também poderão revelar:&lt;/em&gt; &lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;níveis mais elevados de substâncias chamadas bilirrubina e/ou creatinina sérica no sangue&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Efeitos indesejáveis raros&lt;/strong&gt;
+&lt;em&gt;(podem afetar até 1 em cada 1000 pessoas)&lt;/em&gt;&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;síndrome de Stevens-Johnson (SSJ), uma doença grave potencialmente fatal que normalmente começa com sintomas gripais. Alguns dias mais tarde, aparecem outros sintomas, incluindo:&lt;ul&gt;
+&lt;li&gt;Pele dolorosa vermelha ou roxa que parece queimada e descamada&lt;/li&gt;
+&lt;li&gt;Bolhas na pele, boca, nariz e genitais&lt;/li&gt;
+&lt;li&gt;Olhos vermelhos, dolorosos e lacrimejantes&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Se tiver algum destes sintomas, pare de imediato o seu medicamento e informe logo o seu médico.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Se qualquer um dos efeitos indesejáveis se agravar informe o seu médico.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Outros efeitos que podem ser observados durante o tratamento do VIH&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;A frequência dos efeitos indesejáveis seguintes é desconhecida (a frequência não pode ser calculada a
+partir dos dados disponíveis).&lt;/p&gt;
+&lt;ul&gt;
+&lt;li&gt;Problemas nos ossos. Alguns doentes tratados com associações de medicamentos
+antirretrovíricos tais como Biktarvy podem desenvolver uma doença óssea chamada
+osteonecrose (morte do tecido ósseo causada pela perda da irrigação de sangue no osso). Tomar
+este tipo de medicamentos durante um período prolongado, tomar corticosteroides, consumir
+bebidas alcoólicas, ter um sistema imunológico muito fraco e ter excesso de peso, podem ser
+alguns dos muitos fatores de risco para o desenvolvimento desta doença. Sinais de osteonecrose
+são:&lt;ul&gt;
+&lt;li&gt;rigidez das articulações&lt;/li&gt;
+&lt;li&gt;dores nas articulações (especialmente na anca, joelho e ombro)&lt;/li&gt;
+&lt;li&gt;dificuldade em se movimentar&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Se observar qualquer um destes sintomas, informe o seu médico.&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Durante a terapêutica para o VIH pode haver um aumento do peso e dos níveis de lípidos e glucose no
+sangue. Isto está em parte associado a uma recuperação da saúde e do estilo de vida e, no caso dos
+lípidos no sangue, por vezes aos próprios medicamentos para o VIH. O seu médico irá realizar testes
+para determinar estas alterações.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Comunicação de efeitos indesejáveis&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Se tiver quaisquer efeitos indesejáveis, incluindo possíveis efeitos indesejáveis não indicados neste
+folheto, fale com o seu médico ou farmacêutico. Também poderá comunicar efeitos indesejáveis
+diretamente através do sistema nacional de notificação mencionado no Apêndice V. Ao comunicar
+efeitos indesejáveis, estará a ajudar a fornecer mais informações sobre a segurança deste medicamento&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Manter este medicamento fora da vista e do alcance das crianças.&lt;/p&gt;
+&lt;p&gt;Não utilize este medicamento após o prazo de validade impresso na embalagem exterior e no frasco ou
+fita blister, após {VAL}. O prazo de validade corresponde ao último dia do mês indicado.&lt;/p&gt;
+&lt;p&gt;Conservar na embalagem de origem para proteger da humidade. Manter o frasco bem fechado. Não
+utilizar se o selo por cima da abertura do frasco estiver partido ou ausente.&lt;/p&gt;
+&lt;p&gt;Não deite fora quaisquer medicamentos na canalização ou no lixo doméstico. Pergunte ao seu
+farmacêutico como deitar fora os medicamentos que já não utiliza. Estas medidas ajudarão a proteger
+o ambiente.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Qual a composição de Biktarvy&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;As substâncias ativas são o bictegravir, a emtricitabina e o tenofovir alafenamida. Cada comprimido
+de Biktarvy contém bictegravir sódico equivalente a 30 mg de bictegravir, 120 mg de emtricitabina e
+tenofovir alafenamida fumarato equivalente a 15 mg de tenofovir alafenamida.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Os outros componentes são&lt;/strong&gt;
+&lt;em&gt;Núcleo do comprimido&lt;/em&gt;
+Celulose microcristalina (E460), croscarmelose sódica (E468), estearato de magnésio (E470b).
+&lt;em&gt;Película de revestimento&lt;/em&gt;
+Álcool polivinílico (E203), dióxido de titânio (E171), macrogol (E1521), talco (E553b), óxido de ferro
+vermelho (E172), óxido de ferro preto (E172).&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Qual o aspeto de Biktarvy e conteúdo da embalagem&lt;/strong&gt;
+Biktarvy 30 mg/120 mg/15 mg comprimidos revestidos por película são comprimidos revestidos por
+película cor-de-rosa, em forma de cápsula, com “BVY” gravado num lado do comprimido e uma
+ranhura no outro lado do comprimido.&lt;/p&gt;
+&lt;p&gt;Os comprimidos são fornecidos num frasco. É possível que não sejam comercializadas todas as
+apresentações.&lt;/p&gt;
+&lt;p&gt;Biktarvy apresenta-se em embalagens contendo 1 frasco de 30 comprimidos e em embalagens com 3
+frascos, cada um dos quais contendo 30 comprimidos. Cada frasco contém um exsicante de sílica gel
+que deve ser mantido dentro do frasco para ajudar a proteger os seus comprimidos. O exsicante de
+sílica gel está contido numa saqueta ou recipiente separado e não deve ser engolido.&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Titular da Autorização de Introdução no Mercado&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Gilead Sciences Ireland UC
+Carrigtohill
+County Cork, T45 DP77
+Irlanda&lt;/p&gt;
+&lt;p&gt;&lt;strong&gt;Fabricante&lt;/strong&gt;&lt;/p&gt;
+&lt;p&gt;Gilead Sciences Ireland UC
+IDA Business &amp;amp; Technology Park
+Carrigtohill
+County Cork
+Irlanda&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1777,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1494,47 +1855,73 @@
         <v>108</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="B3" s="8"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+    <row r="3" spans="1:16" ht="409.6">
+      <c r="B3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1556,7 +1943,7 @@
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,10 +1957,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1971,24 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +2073,10 @@
         <v>96</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2024,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EB2795-F6E7-D149-BA96-099EC7B435E4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2075,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
         <v>82</v>
@@ -2129,10 +2536,10 @@
         <v>127</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>108</v>

--- a/ePICreator/Biktarvy.xlsx
+++ b/ePICreator/Biktarvy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FAF3BF-8BC5-9642-B367-73B4378E372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8CE8A-A58B-F74D-8B50-97CD3952696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -1179,6 +1179,12 @@
 Carrigtohill
 County Cork
 Irlanda&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>30 tablets</t>
+  </si>
+  <si>
+    <t>Biktarvy 50 mg/200 mg/25 mg film-coated tablets 30 (1 bottle of 30) film-coated tablets</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B3880-CBCE-B242-93DB-BF401DA7FB8A}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2800,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2938,6 +2944,47 @@
         <v>200000003529</v>
       </c>
     </row>
+    <row r="3" spans="1:23">
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100000155527</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="8">
+        <v>654321</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="13">
+        <v>100000073504</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="13">
+        <v>200000003529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
